--- a/InterfaceAuto/data/Intelligent_mediation_web.xlsx
+++ b/InterfaceAuto/data/Intelligent_mediation_web.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DA1F33-4F1C-4434-93EC-E0DE041B5904}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861506C6-5511-41F2-B6C7-02710572A75B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50685" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="127530" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="auth" sheetId="1" r:id="rId1"/>
     <sheet name="administrator" sheetId="2" r:id="rId2"/>
     <sheet name="user" sheetId="3" r:id="rId3"/>
-    <sheet name="institution" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="institution" sheetId="6" r:id="rId4"/>
+    <sheet name="mediator" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="80">
   <si>
     <t>Run</t>
   </si>
@@ -101,16 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>data.userInfo.DSRLXDH[=]&lt;DLMC&gt;
-data.userInfo[key]DSRZJLX&amp;DSRLX&amp;DSRLXDH&amp;MMFZD&amp;LX&amp;DSRXM&amp;status&amp;DSRBM&amp;DZYX&amp;XXCJRQ&amp;XB&amp;ZP&amp;keywords&amp;_id&amp;DSRZJHM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data.userInfo.NC[=]&lt;DLMC&gt;
-data.userInfo[key]MMFZD&amp;NC&amp;LXDH&amp;status&amp;XM&amp;XXCJRQ&amp;register_time&amp;LX&amp;BM&amp;keywords&amp;_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DLMC=mm
 MM=123456
 LX=04</t>
@@ -124,8 +114,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>institutions</t>
+  </si>
+  <si>
+    <t>case2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>headers=&lt;case1,headers,all&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>records0=&lt;Res,data.records[dict_list0]&gt;
+case1_input=&lt;case1,Input,all&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>case4</t>
+  </si>
+  <si>
+    <t>%records0%TWHMC[=]%case1_input%TWHMC
+%records0%CLRQ[=]]%case1_input%CLRQ
+%records0%TWHLX[=]%case1_input%TWHLX
+%records0%FZR[=]%case1_input%FZR
+%records0%NC[=]%case1_input%NC
+%records0%domains[DO=][{"value": "16", "label": "医疗纠纷"},{"value": "01", "label": "婚姻家庭纠纷"},{"value": "17", "label": "道路交通事故纠纷"},{"value": "04", "label": "合同纠纷"}]
+%records0%location[=]{"province":{"label":"江苏省","value":"320000"},"city":{"label":"南京市","value":"320100"},"district":{"label":"玄武区","value":"320102"},"detail":"新街口街道人民调解委员会"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuotoSituation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case6</t>
+  </si>
+  <si>
+    <t>headers=&lt;case1,headers,all&gt;
+GLYBM=%GLYBM%
+TWHBM=&lt;case2,Res,data.records.TWHBM[dict_list0_dict]&gt;
+FZR=dasfvgsdfg
+SYRQ=2020-12-24 12:53:34
+location=dumps{"province":{"label":"江苏省","value":"320000"},"city":{"label":"南京市","value":"320100"},"district":{"label":"雨花台区","value":"320114"},"detail":"雨花台街道人民调解委员会"}
+domains=dumps[{"value": "18", "label": "物业纠纷"},{"value": "02", "label": "邻里纠纷"},{"value": "03", "label": "房产宅基地纠纷"},{"value": "06", "label": "损害赔偿纠纷"},{"value": "05", "label": "生产经营纠纷"},{"value": "08", "label": "征地拆迁纠纷"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DLMC=dingxiaohui1234567890
+MM=123456
+LX=03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self_update</t>
+  </si>
+  <si>
+    <t>case5</t>
+  </si>
+  <si>
+    <t>exit</t>
+  </si>
+  <si>
+    <t>headers={"token":%token%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Res_headers=&lt;case1,Res_headers,all&gt;
+token=%Res_headers%Set-Cookie&amp;extract[=(.*?);]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%records0%TWHMC[=]%case1_input%TWHMC
+%records0%CLRQ[=]]%case1_input%CLRQ
+%records0%TWHLX[=]%case1_input%TWHLX
+%records0%NC[=]%case1_input%NC
+%records0%FZR[=]&lt;case3,Input,FZR&gt;
+%records0%domains[DO=][{"value": "18", "label": "物业纠纷"},{"value": "02", "label": "邻里纠纷"},{"value": "03", "label": "房产宅基地纠纷"},{"value": "06", "label": "损害赔偿纠纷"},{"value": "05", "label": "生产经营纠纷"},{"value": "08", "label": "征地拆迁纠纷"}]
+%records0%location[=]{"province":{"label":"江苏省","value":"320000"},"city":{"label":"南京市","value":"320100"},"district":{"label":"雨花台区","value":"320114"},"detail":"雨花台街道人民调解委员会"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ID=aecefbf7982334a9901c2eb12a170f24
-NC=dingxiaohui12345678902
+NC=dingxiaohui1234567890
 MM=123456
 location=dumps{"province":{"label":"江苏省","value":"320000"},"city":{"label":"南京市","value":"320100"},"district":{"label":"玄武区","value":"320102"},"detail":"新街口街道人民调解委员会"}
 domains=dumps[{"value": "16", "label": "医疗纠纷"},{"value": "01", "label": "婚姻家庭纠纷"},{"value": "17", "label": "道路交通事故纠纷"},{"value": "04", "label": "合同纠纷"}]
@@ -133,53 +209,217 @@
 CLRQ=1991-08-07
 TWHLX=04
 TWHMC=张庆调委会1234567
-headers={"token":&lt;user,case1,Res_headers,Set-Cookie,extract[=(.*?);]&gt;}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>institutions</t>
-  </si>
-  <si>
-    <t>headers=&lt;case1,headers&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QuotoSituation</t>
-  </si>
-  <si>
-    <t>records0=&lt;Res,data.records[dict_list0]&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%records0%TWHMC[=]张庆调委会1234567
-%records0%CLRQ[=]1991-08-07
-%records0%TWHLX[=]04
-%records0%FZR[=]张庆
-%records0%NC[=]dingxiaohui12345678902
-%records0%domains[DO=][{"value": "16", "label": "医疗纠纷"},{"value": "01", "label": "婚姻家庭纠纷"},{"value": "17", "label": "道路交通事故纠纷"},{"value": "04", "label": "合同纠纷"}]
-%records0%location[=]{"province":{"label":"江苏省","value":"320000"},"city":{"label":"南京市","value":"320100"},"district":{"label":"玄武区","value":"320102"},"detail":"新街口街道人民调解委员会"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t>headers=&lt;case1,headers,all&gt;</t>
+headers={"token":%token%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_case3=&lt;user,case3,all,all,Undo&gt;
+Res_headers=%user_case3%Res_headers
+token=%Res_headers%Set-Cookie&amp;extract[=(.*?);]
+TWHBM=&lt;case2,Res,data.records.TWHBM[dict_list_dict/NC@dingxiaohui1234567890]&gt;
+old_password=&lt;case1,Input,MM&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headers={"token":%token%}
+TWHBM=&lt;case2,Res,data.records.TWHBM[dict_list0_dict]&gt;
+password=123456abc
+old_password=%old_password%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mediators</t>
+  </si>
+  <si>
+    <t>mediator</t>
+  </si>
+  <si>
+    <t>Module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_case3=&lt;user,case3,all,all,Undo&gt;
+Res_headers=%user_case3%Res_headers
+token=%Res_headers%Set-Cookie&amp;extract[=(.*?);]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>headers=&lt;case1,headers,all&gt;
-BM=aecefbf7982334a9901c2eb12a170f24
+BM=&lt;case1,Input,ID&gt;
 TWHBM=&lt;case2,Res,data.records.TWHBM[dict_list0_dict]&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>records0=&lt;Res,data.records[dict_list0]&gt;
-case1_input=&lt;case1,Input,all&gt;</t>
+    <t>headers={"token":%token%}
+_id=%user_case3%Res.data.userInfo._id
+NC=丁晓晖杨杰
+MM=123456
+location=dumps{"province":{"label":"江苏省","value":"320000"},"city":{"label":"南京市","value":"320100"},"district":{"label":"玄武区","value":"320102"},"detail":"新街口街道人民调解委员会"}
+domains=dumps[{"value": "16", "label": "医疗纠纷"},{"value": "01", "label": "婚姻家庭纠纷"},{"value": "17", "label": "道路交通事故纠纷"},{"value": "04", "label": "合同纠纷"}]
+SFZHM=342626199108030867
+XM=丁晓晖杨杰
+XB=2
+MZ=01
+XL=10
+JBQTSF=05
+TWHZW=01
+ZJZ=01
+SFZFGMFW=01
+XGGZZSCB=01
+SJ=18196585820
+CSFS=13
+ZZMM=团员
+PYRQ=2018-08-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>institution</t>
+  </si>
+  <si>
+    <t>headers=&lt;case1,headers,all&gt;
+BM=&lt;case1,Input,ID&gt;
+TWHBM=%TWHBM%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TWHBM=&lt;case2,QuotoSituation,records.TWHBM&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case1_input=&lt;case1,Input,all&gt;
+NC=%case1_input%NC
+records=&lt;Res,data.records[dict_list/NC@%NC%]&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%records%TWHMC[=]%case1_input%TWHMC
+%records%CLRQ[=]%case1_input%CLRQ
+%records%TWHLX[=]%case1_input%TWHLX
+%records%FZR[=]%case1_input%FZR
+%records%NC[=]%case1_input%NC
+%records%domains[DO=][{"value": "16", "label": "医疗纠纷"},{"value": "01", "label": "婚姻家庭纠纷"},{"value": "17", "label": "道路交通事故纠纷"},{"value": "04", "label": "合同纠纷"}]
+%records%location[=]{"province":{"label":"江苏省","value":"320000"},"city":{"label":"南京市","value":"320100"},"district":{"label":"玄武区","value":"320102"},"detail":"新街口街道人民调解委员会"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headers=&lt;case3,headers,all&gt;
+TWHBM=%TWHBM%
+page_number=int(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data.userInfo.DSRLXDH[=]&lt;DLMC&gt;
+data.userInfo[key]DSRZJLX&amp;DSRLX&amp;DSRLXDH&amp;MMFZD&amp;LX&amp;DSRXM&amp;status&amp;DSRBM&amp;DZYX&amp;XXCJRQ&amp;XB&amp;ZP&amp;keywords&amp;_id&amp;DSRZJHM
+data.userInfo.LX[=]&lt;LX&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data.userInfo.NC[=]&lt;DLMC&gt;
+data.userInfo[key]MMFZD&amp;NC&amp;LXDH&amp;status&amp;XM&amp;XXCJRQ&amp;register_time&amp;LX&amp;BM&amp;keywords&amp;_id
+data.userInfo.LX[=]&lt;LX&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headers=&lt;case3,headers,all&gt;
+TJYBM=&lt;case4,QuotoSituation,records.TJYBM&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%records%XM[=]%case3_input%XM
+%records%NC[=]%case3_input%NC
+%records%SJ[=]%case3_input%SJ
+%records%ZZMM[=]%case3_input%ZZMM
+%records%location[=]{"province":{"label":"江苏省","value":"320000"},"city":{"label":"南京市","value":"320100"},"district":{"label":"玄武区","value":"320102"},"detail":"新街口街道人民调解委员会"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token_auth</t>
+  </si>
+  <si>
+    <t>headers={"token":%token%}</t>
+  </si>
+  <si>
+    <t>Res_headers=&lt;case1,Res_headers,all&gt;
+token=%Res_headers%Set-Cookie&amp;extract[=(.*?);]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case7</t>
+  </si>
+  <si>
+    <t>Res_headers=&lt;case2,Res_headers,all&gt;
+token=%Res_headers%Set-Cookie&amp;extract[=(.*?);]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info/update</t>
+  </si>
+  <si>
+    <t>Res_headers=&lt;case1,Res_headers,all&gt;
+BM=&lt;case1,Res,data.userInfo.DSRBM&gt;
+XB=&lt;case1,Res,data.userInfo.XB,transfer[XB]&gt;
+token=%Res_headers%Set-Cookie&amp;extract[=(.*?);]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headers={"token":%token%}
+action=int(7)
+BM=%BM%
+XB=%XB%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case8</t>
+  </si>
+  <si>
+    <t>DLMC=丁晓晖杨杰
+MM=123456
+LX=02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case9</t>
+  </si>
+  <si>
+    <t>case10</t>
+  </si>
+  <si>
+    <t>Res_headers=&lt;case4,Res_headers,all&gt;
+token=%Res_headers%Set-Cookie&amp;extract[=(.*?);]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Res_headers=&lt;case3,Res_headers,all&gt;
+token=%Res_headers%Set-Cookie&amp;extract[=(.*?);]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case11</t>
+  </si>
+  <si>
+    <t>Res_headers=&lt;case4,Res_headers,all&gt;
+token=%Res_headers%Set-Cookie&amp;extract[=(.*?);]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case3_input=&lt;case3,Input,all&gt;
+NC=&lt;case3,Input,NC&gt;
+records=&lt;Res,data.records[dict_list/NC@%NC%]&gt;
+TWHBM=&lt;case2,QuotoSituation,records.TWHBM&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_case4=&lt;user,case4,all,all,Undo&gt;
+Res_headers=%user_case4%Res_headers
+token=%Res_headers%Set-Cookie&amp;extract[=(.*?);]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLYBM=&lt;case1,QuotoSituation,user_case4.Res.data.userInfo.BM&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,7 +751,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -649,19 +889,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34E37F6-48B4-402A-9CAB-003C61DE4890}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="42.25" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="49.875" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="7" max="7" width="42.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -675,13 +917,16 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -691,16 +936,16 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="G2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -708,11 +953,158 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -723,21 +1115,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C8BAB1-CFC5-4E32-A27B-01DBC0BF2A0D}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E33BDCF-5234-4D30-B2E1-98F1961F2B27}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="33.375" customWidth="1"/>
+    <col min="5" max="5" width="76.75" customWidth="1"/>
     <col min="6" max="6" width="63" customWidth="1"/>
     <col min="7" max="7" width="50.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -751,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
@@ -760,7 +1152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="198" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -768,36 +1160,36 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="243.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" ht="171" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -805,10 +1197,64 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="162" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>34</v>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -819,28 +1265,174 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC7B062-5A71-47B4-B98C-E1CE2F7A6AA3}">
-  <dimension ref="C1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B368A0C8-BFB7-40A4-A6E2-957BED93EA36}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="9.125" customWidth="1"/>
+    <col min="6" max="6" width="63.25" customWidth="1"/>
+    <col min="7" max="7" width="79.875" customWidth="1"/>
+    <col min="8" max="8" width="123.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="3:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
       <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
-        <v>27</v>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/InterfaceAuto/data/Intelligent_mediation_web.xlsx
+++ b/InterfaceAuto/data/Intelligent_mediation_web.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861506C6-5511-41F2-B6C7-02710572A75B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7384C72-1E13-4DB8-A47C-A3A6055FAC6B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="127530" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="132435" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="auth" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="85">
   <si>
     <t>Run</t>
   </si>
@@ -421,6 +421,23 @@
   <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类型01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类型02</t>
+  </si>
+  <si>
+    <t>用户类型03</t>
+  </si>
+  <si>
+    <t>用户类型04</t>
   </si>
 </sst>
 </file>
@@ -832,7 +849,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -873,6 +890,9 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
@@ -892,12 +912,13 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
     <col min="5" max="5" width="49.875" customWidth="1"/>
     <col min="6" max="6" width="30.5" customWidth="1"/>
     <col min="7" max="7" width="42.25" customWidth="1"/>
@@ -936,6 +957,9 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
@@ -953,6 +977,9 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>69</v>
       </c>
@@ -967,6 +994,9 @@
       <c r="C4" t="s">
         <v>18</v>
       </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>34</v>
       </c>
@@ -981,6 +1011,9 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
@@ -998,6 +1031,9 @@
       <c r="C6" t="s">
         <v>60</v>
       </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>62</v>
       </c>
@@ -1015,6 +1051,9 @@
       <c r="C7" t="s">
         <v>60</v>
       </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>75</v>
       </c>
@@ -1032,6 +1071,9 @@
       <c r="C8" t="s">
         <v>65</v>
       </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>66</v>
       </c>
@@ -1048,6 +1090,9 @@
       </c>
       <c r="C9" t="s">
         <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>39</v>
@@ -1066,6 +1111,9 @@
       <c r="C10" t="s">
         <v>37</v>
       </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>64</v>
       </c>
@@ -1083,6 +1131,9 @@
       <c r="C11" t="s">
         <v>37</v>
       </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>73</v>
       </c>
@@ -1099,6 +1150,9 @@
       </c>
       <c r="C12" t="s">
         <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>72</v>

--- a/InterfaceAuto/data/Intelligent_mediation_web.xlsx
+++ b/InterfaceAuto/data/Intelligent_mediation_web.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7384C72-1E13-4DB8-A47C-A3A6055FAC6B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29211DB9-BA2A-44F1-A2B7-B067868F4278}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="132435" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135705" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="auth" sheetId="1" r:id="rId1"/>
@@ -197,19 +197,6 @@
 %records0%FZR[=]&lt;case3,Input,FZR&gt;
 %records0%domains[DO=][{"value": "18", "label": "物业纠纷"},{"value": "02", "label": "邻里纠纷"},{"value": "03", "label": "房产宅基地纠纷"},{"value": "06", "label": "损害赔偿纠纷"},{"value": "05", "label": "生产经营纠纷"},{"value": "08", "label": "征地拆迁纠纷"}]
 %records0%location[=]{"province":{"label":"江苏省","value":"320000"},"city":{"label":"南京市","value":"320100"},"district":{"label":"雨花台区","value":"320114"},"detail":"雨花台街道人民调解委员会"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID=aecefbf7982334a9901c2eb12a170f24
-NC=dingxiaohui1234567890
-MM=123456
-location=dumps{"province":{"label":"江苏省","value":"320000"},"city":{"label":"南京市","value":"320100"},"district":{"label":"玄武区","value":"320102"},"detail":"新街口街道人民调解委员会"}
-domains=dumps[{"value": "16", "label": "医疗纠纷"},{"value": "01", "label": "婚姻家庭纠纷"},{"value": "17", "label": "道路交通事故纠纷"},{"value": "04", "label": "合同纠纷"}]
-FZR=张庆
-CLRQ=1991-08-07
-TWHLX=04
-TWHMC=张庆调委会1234567
-headers={"token":%token%}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -438,6 +425,20 @@
   </si>
   <si>
     <t>用户类型04</t>
+  </si>
+  <si>
+    <t>ID=aecefbf7982334a9901c2eb12a170f24
+NC=dingxiaohui1234567890
+MM=123456
+location=dumps{"province":{"label":"江苏省","value":"320000"},"city":{"label":"南京市","value":"320100"},"district":{"label":"玄武区","value":"320102"},"detail":"新街口街道人民调解委员会"}
+domains=dumps[{"value": "16", "label": "医疗纠纷"},{"value": "01", "label": "婚姻家庭纠纷"},{"value": "17", "label": "道路交通事故纠纷"},{"value": "04", "label": "合同纠纷"}]
+FZR=张庆
+CLRQ=1991-08-07
+TWHLX=04
+TWHMC=张庆调委会1234567
+SYRQ=2019-12-24 12:53:34
+headers={"token":%token%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -891,7 +892,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -911,7 +912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34E37F6-48B4-402A-9CAB-003C61DE4890}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -958,18 +959,18 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -978,15 +979,15 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -995,7 +996,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>34</v>
@@ -1012,13 +1013,13 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -1029,16 +1030,16 @@
         <v>36</v>
       </c>
       <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -1049,16 +1050,16 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="57" x14ac:dyDescent="0.2">
@@ -1066,19 +1067,19 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -1086,13 +1087,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>39</v>
@@ -1103,19 +1104,19 @@
     </row>
     <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>38</v>
@@ -1123,19 +1124,19 @@
     </row>
     <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>38</v>
@@ -1146,16 +1147,16 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>38</v>
@@ -1172,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E33BDCF-5234-4D30-B2E1-98F1961F2B27}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1220,10 +1221,10 @@
         <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="243.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1254,7 +1255,7 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>33</v>
@@ -1291,10 +1292,10 @@
         <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1308,7 +1309,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1322,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B368A0C8-BFB7-40A4-A6E2-957BED93EA36}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1342,7 +1343,7 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1368,16 +1369,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1388,19 +1389,19 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
@@ -1411,16 +1412,16 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
@@ -1431,19 +1432,19 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -1454,14 +1455,14 @@
         <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1472,16 +1473,16 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
